--- a/ExcelConfig/随机事件表.xlsx
+++ b/ExcelConfig/随机事件表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-6480" yWindow="180" windowWidth="20730" windowHeight="9075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="119">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Probability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DialogOK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,18 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RewardItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardSoidler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,46 +75,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>万分比概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励士兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>随机事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流浪商人遇到困难想借你100金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流浪商人感谢你给你回报200金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流浪商人得到钱就不见踪影啦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RandomEventConfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,15 +95,1491 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CostType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>消耗类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件触发机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游戏内，每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟触发一次，地图探索过程中不触发，离线后重新登录重新计时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋类属于特殊类别，当天赋类的一个事件被完成后，该事件将不再出现</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件解锁条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventUnlockType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件解锁类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事件触发时，在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日常类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之间先随机类别，再由类别中完全随机一个事件出来</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日常类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开启指定地图解锁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得指定成就解锁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取指定道具解锁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云游商人想从你这里购买些圆木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔壁山头的干粮紧缺，想从你这里购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间解锁（参数填写时间具体小时数）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当固定时间的事件出现时，优先该类别，不需要去天赋类和日常类事件随机</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼牙寨翻修缺砥石，有富余的卖点？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女儿村想用丝绸换些锰铜，庄里可有盈余？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路过的猎人想用兽皮换点干粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑风寨断了房梁，想买些柳木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定时间类（基本就是赌博）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄里大汉想用生铁倒换些青麻缝身衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僧人们想用绢布换些干粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑风妖想用藏魂石换些兽皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造厂想用柳木换些灰钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一名僧人来访，愿传授你强身之道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初级耐寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>没什么兴趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一名猎户来访，愿传授你攻伐之术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一名军人来访，愿传授你卫道之法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一位老妇来访，愿传授你勤俭之道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一名老翁来访，愿传授你长寿之道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币（参数金币量）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道具（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中级耐寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高级耐寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专家级耐寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初级反伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中级反伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高级反伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专家级反伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初级护佑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高级护佑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>精准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高阶精准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灵巧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高阶灵巧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节约成本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardConditon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋（天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道具（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兽皮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绢布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>藏魂石</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>柳木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱庄老板闲来无事，想和你赌一赌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手头紧，下次再说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌博需要弹出一个玩家输入金币值的面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那就看看今天的手气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄里也没有余粮啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们装修也没富余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有，干脆不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还真没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿你铁裤衩去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也想要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产量低没存货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>158:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到[丝绸]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +1587,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +1634,26 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,15 +1675,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -258,7 +1707,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -300,7 +1749,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,7 +1784,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,30 +1995,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -580,31 +2029,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="I8:M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="9" width="36.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -618,31 +2069,34 @@
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -656,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>6</v>
@@ -677,10 +2131,13 @@
         <v>7</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -691,65 +2148,1235 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="2">
+        <v>3</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>300</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>500</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>500</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>800</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2</v>
+      </c>
+      <c r="M19" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2</v>
+      </c>
+      <c r="M20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3000</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="2">
+        <v>2</v>
+      </c>
+      <c r="M21" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>300</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2</v>
+      </c>
+      <c r="M22" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>500</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="2">
+        <v>2</v>
+      </c>
+      <c r="M23" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="2">
+        <v>2</v>
+      </c>
+      <c r="M24" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>6</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="2">
+        <v>2</v>
+      </c>
+      <c r="M25" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>200</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2</v>
+      </c>
+      <c r="M26" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>300</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="2">
+        <v>2</v>
+      </c>
+      <c r="M27" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>200</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" s="2">
+        <v>2</v>
+      </c>
+      <c r="M28" s="2">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+    </row>
+    <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>300</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L29" s="2">
+        <v>2</v>
+      </c>
+      <c r="M29" s="2">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
+    </row>
+    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>500</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="2">
+        <v>2</v>
+      </c>
+      <c r="M30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
+      <c r="F31" s="2">
+        <v>10</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2">
+        <v>16</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2">
         <v>21</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="4">
-        <v>5000</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="4"/>
+      <c r="G33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/随机事件表.xlsx
+++ b/ExcelConfig/随机事件表.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiexiongping/Documents/github/workdir/ExcelConfig/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-6480" yWindow="180" windowWidth="20730" windowHeight="9075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="11220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="RandomEventConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="131">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1581,6 +1591,42 @@
   <si>
     <t>8:12</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>卖</t>
+  </si>
+  <si>
+    <t>不卖</t>
+  </si>
+  <si>
+    <t>不换</t>
+  </si>
+  <si>
+    <t>换</t>
+  </si>
+  <si>
+    <t>不学</t>
+  </si>
+  <si>
+    <t>学</t>
+  </si>
+  <si>
+    <t>没兴趣</t>
+  </si>
+  <si>
+    <t>有兴趣</t>
   </si>
 </sst>
 </file>
@@ -1591,13 +1637,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1691,7 +1737,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1707,7 +1753,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1749,7 +1795,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1784,7 +1830,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1999,15 +2045,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2029,33 +2075,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="I8:M8"/>
+      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="75.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="19" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="7" max="9" width="33" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2078,25 +2124,31 @@
         <v>9</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2119,25 +2171,31 @@
         <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2160,25 +2218,31 @@
         <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -2197,26 +2261,32 @@
       <c r="G4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="4">
         <v>3</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2235,26 +2305,32 @@
       <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2273,26 +2349,32 @@
       <c r="G6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="2">
         <v>3</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -2311,26 +2393,32 @@
       <c r="G7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="2">
         <v>3</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>3</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -2352,26 +2440,32 @@
       <c r="G8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="2">
         <v>3</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="K8" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="2">
+      <c r="N8" s="2">
         <v>3</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="O8" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -2393,26 +2487,32 @@
       <c r="G9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="2">
         <v>3</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="K9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8" t="s">
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -2434,26 +2534,32 @@
       <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="2">
         <v>3</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L10" s="2">
+      <c r="N10" s="2">
         <v>3</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="O10" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -2475,26 +2581,32 @@
       <c r="G11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="2">
         <v>3</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <v>3</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="O11" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -2516,26 +2628,32 @@
       <c r="G12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="2">
         <v>3</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L12" s="2">
+      <c r="N12" s="2">
         <v>3</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="O12" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="2">
         <v>10</v>
@@ -2555,26 +2673,32 @@
       <c r="G13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="2">
         <v>3</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="K13" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L13" s="2">
+      <c r="N13" s="2">
         <v>3</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="O13" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="2">
         <v>11</v>
@@ -2594,26 +2718,32 @@
       <c r="G14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="H14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
         <v>300</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="2">
+      <c r="N14" s="2">
         <v>2</v>
       </c>
-      <c r="M14" s="2">
+      <c r="O14" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
@@ -2635,26 +2765,32 @@
       <c r="G15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="H15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
         <v>500</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="2">
+      <c r="N15" s="2">
         <v>2</v>
       </c>
-      <c r="M15" s="2">
+      <c r="O15" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -2676,26 +2812,32 @@
       <c r="G16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="H16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
         <v>1000</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="2">
+      <c r="N16" s="2">
         <v>2</v>
       </c>
-      <c r="M16" s="2">
+      <c r="O16" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
@@ -2717,26 +2859,32 @@
       <c r="G17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="H17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
         <v>2000</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="2">
+      <c r="N17" s="2">
         <v>2</v>
       </c>
-      <c r="M17" s="2">
+      <c r="O17" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>47</v>
       </c>
@@ -2758,26 +2906,32 @@
       <c r="G18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="H18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
         <v>500</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="2">
+      <c r="N18" s="2">
         <v>2</v>
       </c>
-      <c r="M18" s="2">
+      <c r="O18" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>93</v>
       </c>
@@ -2799,26 +2953,32 @@
       <c r="G19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="H19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
         <v>800</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L19" s="2">
+      <c r="N19" s="2">
         <v>2</v>
       </c>
-      <c r="M19" s="2">
+      <c r="O19" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="2">
         <v>17</v>
@@ -2838,26 +2998,32 @@
       <c r="G20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="H20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
         <v>1500</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L20" s="2">
+      <c r="N20" s="2">
         <v>2</v>
       </c>
-      <c r="M20" s="2">
+      <c r="O20" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
@@ -2879,26 +3045,32 @@
       <c r="G21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="H21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
         <v>3000</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L21" s="2">
+      <c r="N21" s="2">
         <v>2</v>
       </c>
-      <c r="M21" s="2">
+      <c r="O21" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>35</v>
       </c>
@@ -2920,26 +3092,32 @@
       <c r="G22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="H22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
         <v>300</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="2">
+      <c r="N22" s="2">
         <v>2</v>
       </c>
-      <c r="M22" s="2">
+      <c r="O22" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>36</v>
       </c>
@@ -2961,26 +3139,32 @@
       <c r="G23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="H23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
         <v>500</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L23" s="2">
+      <c r="N23" s="2">
         <v>2</v>
       </c>
-      <c r="M23" s="2">
+      <c r="O23" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>37</v>
       </c>
@@ -3002,26 +3186,32 @@
       <c r="G24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="H24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
         <v>1000</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="2">
+      <c r="N24" s="2">
         <v>2</v>
       </c>
-      <c r="M24" s="2">
+      <c r="O24" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
@@ -3043,26 +3233,32 @@
       <c r="G25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="H25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
         <v>2000</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L25" s="2">
+      <c r="N25" s="2">
         <v>2</v>
       </c>
-      <c r="M25" s="2">
+      <c r="O25" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>41</v>
       </c>
@@ -3084,26 +3280,32 @@
       <c r="G26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
+      <c r="H26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
         <v>200</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L26" s="2">
+      <c r="N26" s="2">
         <v>2</v>
       </c>
-      <c r="M26" s="2">
+      <c r="O26" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -3122,26 +3324,32 @@
       <c r="G27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
+      <c r="H27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
         <v>300</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L27" s="2">
+      <c r="N27" s="2">
         <v>2</v>
       </c>
-      <c r="M27" s="2">
+      <c r="O27" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>61</v>
       </c>
@@ -3163,26 +3371,32 @@
       <c r="G28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2">
+      <c r="H28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
         <v>200</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L28" s="2">
+      <c r="N28" s="2">
         <v>2</v>
       </c>
-      <c r="M28" s="2">
+      <c r="O28" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
@@ -3204,26 +3418,32 @@
       <c r="G29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
+      <c r="H29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
         <v>300</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="2">
+      <c r="N29" s="2">
         <v>2</v>
       </c>
-      <c r="M29" s="2">
+      <c r="O29" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
@@ -3245,26 +3465,32 @@
       <c r="G30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2">
+      <c r="H30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
         <v>500</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="2">
+      <c r="N30" s="2">
         <v>2</v>
       </c>
-      <c r="M30" s="2">
+      <c r="O30" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -3283,20 +3509,26 @@
       <c r="G31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3" t="s">
+      <c r="H31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L31" s="2">
+      <c r="N31" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>82</v>
       </c>
@@ -3318,20 +3550,26 @@
       <c r="G32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="H32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L32" s="2">
+      <c r="N32" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -3353,35 +3591,45 @@
       <c r="G33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="2">
-        <v>1</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="H33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L33" s="2">
+      <c r="N33" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>84</v>
       </c>
       <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:P2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
